--- a/Technology/Software/Paycom Software.xlsx
+++ b/Technology/Software/Paycom Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388320CC-B066-994C-A41A-6CCE6001F442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55613017-6878-0940-95A0-9C76E2F4A89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1712,7 +1712,10 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1750,7 +1753,10 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1768,7 +1774,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1780,6 +1786,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1907,11 +1916,11 @@
     <v>Powered by Refinitiv</v>
     <v>374.04</v>
     <v>146.15</v>
-    <v>1.2250000000000001</v>
-    <v>3.04</v>
-    <v>1.7054E-2</v>
-    <v>1.69</v>
-    <v>9.3220000000000004E-3</v>
+    <v>1.2425999999999999</v>
+    <v>1.31</v>
+    <v>7.0709999999999992E-3</v>
+    <v>0.67</v>
+    <v>3.5909999999999996E-3</v>
     <v>USD</v>
     <v>Paycom Software, Inc. is a provider of a comprehensive, cloud-based human capital management (HCM) solution delivered as software-as-a-service (SaaS). The Company provides functionality and data analytics. Its solution requires virtually no customization and is based on a core system of record maintained in a single database for all HCM functions, including talent acquisition, time and labor management, payroll, talent management and human resources (HR) management applications. Its applications streamline client processes and provide clients and their employees with the ability to directly access and manage administrative processes, including applications that identify candidates, on-board employees, manage time and labor, administer payroll deductions and benefits, manage performance, terminate employees and administer post-termination health benefits such as COBRA. The Company sells its solution directly through its sales force based in offices across the United States.</v>
     <v>6349</v>
@@ -1919,25 +1928,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7501 W Memorial Rd, OKLAHOMA CITY, OK, 73142 US</v>
-    <v>184.62</v>
+    <v>190.76519999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45260.011160914066</v>
+    <v>45269.039603240628</v>
     <v>0</v>
-    <v>180.4</v>
-    <v>10919365408</v>
+    <v>183.61969999999999</v>
+    <v>11236767811</v>
     <v>PAYCOM SOFTWARE, INC.</v>
     <v>PAYCOM SOFTWARE, INC.</v>
-    <v>180.51</v>
-    <v>31.031600000000001</v>
-    <v>178.26</v>
-    <v>181.3</v>
-    <v>182.98</v>
+    <v>183.98</v>
+    <v>31.711200000000002</v>
+    <v>185.26</v>
+    <v>186.57</v>
+    <v>187.24</v>
     <v>60228160</v>
     <v>PAYC</v>
     <v>PAYCOM SOFTWARE, INC. (XNYS:PAYC)</v>
-    <v>799984</v>
-    <v>1658526</v>
+    <v>1062264</v>
+    <v>1310570</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2102,9 +2111,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -13465,7 +13474,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13518,7 +13527,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>10919365408</v>
+        <v>11236767811</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>200</v>
@@ -13546,7 +13555,7 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>9673193139.2264252</v>
+        <v>10448958296.826914</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>204</v>
@@ -13598,14 +13607,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>8014481247.8285904</v>
+        <v>8554067931.5916796</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.7054E-2</v>
+        <v>7.0709999999999992E-3</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>212</v>
@@ -13650,14 +13659,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>8522026247.8285904</v>
+        <v>9061612931.5916786</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>181.3</v>
+        <v>186.57</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>219</v>
@@ -13677,14 +13686,14 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>6.4918938216409039</v>
+        <v>6.6805991741973845</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="47">
         <f>F17</f>
-        <v>0.23305588585017836</v>
+        <v>0.232461355529132</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>199</v>
@@ -13705,14 +13714,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>9.7372689134167911E-2</v>
+        <v>9.808144776804148E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>139.85899087254154</v>
+        <v>148.71440235388911</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>225</v>
@@ -13732,14 +13741,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>24.704446624434389</v>
+        <v>25.422551608597285</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>3.5899522119921347E-2</v>
+        <v>3.4796482990174335E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>228</v>
@@ -13766,7 +13775,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.22857699463573344</v>
+        <v>-0.20290291925878157</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>231</v>
@@ -13874,13 +13883,13 @@
         <v>1868000000</v>
       </c>
       <c r="H10" s="82">
-        <v>2149000000</v>
+        <v>2124000000</v>
       </c>
       <c r="I10" s="82">
-        <v>2560000000</v>
+        <v>2400000000</v>
       </c>
       <c r="J10" s="83">
-        <v>2920000000</v>
+        <v>2666000000</v>
       </c>
       <c r="K10" s="84" t="s">
         <v>235</v>
@@ -13922,19 +13931,19 @@
       </c>
       <c r="H11" s="86">
         <f t="shared" si="0"/>
-        <v>0.15042826552462518</v>
+        <v>0.13704496788008558</v>
       </c>
       <c r="I11" s="86">
         <f t="shared" si="0"/>
-        <v>0.19125174499767339</v>
+        <v>0.12994350282485878</v>
       </c>
       <c r="J11" s="88">
         <f t="shared" si="0"/>
-        <v>0.140625</v>
+        <v>0.11083333333333334</v>
       </c>
       <c r="K11" s="88">
         <f>AVERAGE(F11:J11)</f>
-        <v>0.16319329278463809</v>
+        <v>0.14229665148783394</v>
       </c>
       <c r="L11" s="72"/>
       <c r="M11" s="72"/>
@@ -13972,7 +13981,7 @@
         <v>481000000</v>
       </c>
       <c r="H12" s="82">
-        <v>554000000</v>
+        <v>552000000</v>
       </c>
       <c r="I12" s="82">
         <v>583000000</v>
@@ -14021,11 +14030,11 @@
       </c>
       <c r="H13" s="86">
         <f t="shared" si="1"/>
-        <v>0.15176715176715172</v>
+        <v>0.14760914760914767</v>
       </c>
       <c r="I13" s="86">
         <f t="shared" si="1"/>
-        <v>5.2346570397111991E-2</v>
+        <v>5.6159420289854989E-2</v>
       </c>
       <c r="J13" s="88">
         <f t="shared" si="1"/>
@@ -14033,7 +14042,7 @@
       </c>
       <c r="K13" s="88">
         <f>AVERAGE(F13:J13)</f>
-        <v>0.20350043715778429</v>
+        <v>0.20343140630473208</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
@@ -14075,15 +14084,15 @@
       </c>
       <c r="H14" s="93">
         <f t="shared" si="2"/>
-        <v>0.25779432294090276</v>
+        <v>0.25988700564971751</v>
       </c>
       <c r="I14" s="93">
         <f t="shared" si="2"/>
-        <v>0.22773437499999999</v>
+        <v>0.24291666666666667</v>
       </c>
       <c r="J14" s="95">
         <f t="shared" si="2"/>
-        <v>0.23047945205479453</v>
+        <v>0.25243810952738183</v>
       </c>
       <c r="K14" s="95"/>
       <c r="L14" s="72"/>
@@ -14093,7 +14102,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -14116,19 +14125,19 @@
         <v>230136732</v>
       </c>
       <c r="F15" s="90">
-        <v>392000000</v>
+        <v>391000000</v>
       </c>
       <c r="G15" s="82">
-        <v>438000000</v>
+        <v>440000000</v>
       </c>
       <c r="H15" s="82">
-        <v>509000000</v>
+        <v>515000000</v>
       </c>
       <c r="I15" s="82">
-        <v>581000000</v>
+        <v>629000000</v>
       </c>
       <c r="J15" s="83">
-        <v>683000000</v>
+        <v>745000000</v>
       </c>
       <c r="K15" s="91" t="s">
         <v>243</v>
@@ -14163,27 +14172,27 @@
       </c>
       <c r="F16" s="87">
         <f t="shared" si="3"/>
-        <v>0.70333521551874645</v>
+        <v>0.69898997262201501</v>
       </c>
       <c r="G16" s="86">
         <f t="shared" si="3"/>
-        <v>0.11734693877551017</v>
+        <v>0.1253196930946292</v>
       </c>
       <c r="H16" s="86">
         <f t="shared" si="3"/>
-        <v>0.16210045662100447</v>
+        <v>0.17045454545454541</v>
       </c>
       <c r="I16" s="86">
         <f t="shared" si="3"/>
-        <v>0.14145383104125742</v>
+        <v>0.22135922330097091</v>
       </c>
       <c r="J16" s="88">
         <f t="shared" si="3"/>
-        <v>0.17555938037865748</v>
+        <v>0.18441971383147848</v>
       </c>
       <c r="K16" s="88">
         <f>AVERAGE(F16:J16)</f>
-        <v>0.25995916446703521</v>
+        <v>0.2801086296607278</v>
       </c>
       <c r="L16" s="72"/>
       <c r="M16" s="72"/>
@@ -14219,23 +14228,23 @@
       </c>
       <c r="F17" s="93">
         <f t="shared" si="4"/>
-        <v>0.23305588585017836</v>
+        <v>0.232461355529132</v>
       </c>
       <c r="G17" s="93">
         <f t="shared" si="4"/>
-        <v>0.23447537473233404</v>
+        <v>0.23554603854389722</v>
       </c>
       <c r="H17" s="93">
         <f t="shared" si="4"/>
-        <v>0.23685435086086551</v>
+        <v>0.24246704331450095</v>
       </c>
       <c r="I17" s="93">
         <f t="shared" si="4"/>
-        <v>0.22695312500000001</v>
+        <v>0.26208333333333333</v>
       </c>
       <c r="J17" s="95">
         <f t="shared" si="4"/>
-        <v>0.23390410958904109</v>
+        <v>0.27944486121530382</v>
       </c>
       <c r="K17" s="95"/>
       <c r="L17" s="72"/>
@@ -14245,7 +14254,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -14328,24 +14337,24 @@
       </c>
       <c r="O20" s="105">
         <f>A3</f>
-        <v>10919365408</v>
+        <v>11236767811</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="str" cm="1">
+      <c r="A21" s="120" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="120" cm="1">
+      <c r="B21" s="120"/>
+      <c r="C21" s="121" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2013</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
@@ -14358,7 +14367,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>10948365408</v>
+        <v>11265767811</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -14386,7 +14395,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>2.6487972331293969E-3</v>
+        <v>2.5741698645416898E-3</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -14411,7 +14420,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.99735120276687061</v>
+        <v>0.99742583013545827</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -14455,7 +14464,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.7372689134167911E-2</v>
+        <v>9.808144776804148E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>
